--- a/src/test/resources/jenkinsJob/jenkinsJob.xlsx
+++ b/src/test/resources/jenkinsJob/jenkinsJob.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\jenkinsJob\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32084E4C-C690-4C3D-B8B8-93AA2931245F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6BA5B1-F624-4B30-A4DD-DF8E6E97268D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>readProperties</t>
     <phoneticPr fontId="1"/>
@@ -34,6 +34,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>jenkinsJob</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{
+  "value": {
+    "parameters": { "BRANCH": "master", "APPS": "common" },
+    "userName": "hugang",
+    "token": "${token}"
+  }
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <t>{</t>
     </r>
@@ -41,19 +55,21 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF871094"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"type"</t>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"target"</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
       </rPr>
       <t>:</t>
     </r>
@@ -61,9 +77,10 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
       </rPr>
       <t>"json"</t>
     </r>
@@ -71,9 +88,10 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
       </rPr>
       <t>}</t>
     </r>
@@ -87,19 +105,21 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF871094"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"file"</t>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"value"</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
       </rPr>
       <t>:</t>
     </r>
@@ -107,9 +127,10 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
       </rPr>
       <t>"C:</t>
     </r>
@@ -117,9 +138,10 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0037A6"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
       </rPr>
       <t>\\</t>
     </r>
@@ -127,9 +149,10 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Users</t>
     </r>
@@ -137,9 +160,10 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0037A6"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
       </rPr>
       <t>\\</t>
     </r>
@@ -147,9 +171,10 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
       </rPr>
       <t>xihu_</t>
     </r>
@@ -157,9 +182,10 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0037A6"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
       </rPr>
       <t>\\</t>
     </r>
@@ -167,9 +193,10 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Desktop</t>
     </r>
@@ -177,9 +204,10 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0037A6"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
       </rPr>
       <t>\\</t>
     </r>
@@ -187,9 +215,10 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
       </rPr>
       <t>2.json"</t>
     </r>
@@ -197,177 +226,25 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
       </rPr>
       <t>}</t>
     </r>
-  </si>
-  <si>
-    <t>jenkinsJob</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF871094"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"parameters"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>: {</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF871094"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"BRANCH"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"master"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF871094"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"APPS"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"common"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>}}</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF871094"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"url"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"https://build.hugang.io/job/test/job/buid"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF067D17"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>,"userName": "hugang", "token": "${token}"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>}</t>
-    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{
+    "parameters": { "BRANCH": "master", "APPS": "common" },
+    "userName": "hugang",
+    "token": "${token}"
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{ "target": "https://build.hugang.io/job/test/job/auto-test/job/auto-test" }</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -375,7 +252,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -392,66 +269,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF080808"/>
-      <name val="Sarasa Mono CL"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
-      <charset val="136"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF871094"/>
-      <name val="Sarasa Mono CL"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
-      <charset val="136"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF067D17"/>
-      <name val="Sarasa Mono CL"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
-      <charset val="136"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0037A6"/>
-      <name val="Sarasa Mono CL"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF080808"/>
-      <name val="Sarasa Mono CL"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF871094"/>
-      <name val="Sarasa Mono CL"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF067D17"/>
-      <name val="Sarasa Mono CL"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF067D17"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -491,27 +353,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -827,21 +692,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="107.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.25" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -849,33 +715,47 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2">
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
         <v>2000</v>
       </c>
     </row>

--- a/src/test/resources/jenkinsJob/jenkinsJob.xlsx
+++ b/src/test/resources/jenkinsJob/jenkinsJob.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\jenkinsJob\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6BA5B1-F624-4B30-A4DD-DF8E6E97268D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64D4025-31D4-4FE2-9AEB-F3B2C397534D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -48,194 +48,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF871094"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"target"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"json"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF871094"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"value"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"C:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0037A6"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Users</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0037A6"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>xihu_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0037A6"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Desktop</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0037A6"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2.json"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>{
     "parameters": { "BRANCH": "master", "APPS": "common" },
     "userName": "hugang",
@@ -245,6 +57,55 @@
   </si>
   <si>
     <t>{ "target": "https://build.hugang.io/job/test/job/auto-test/job/auto-test" }</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"value":"download/2.json"}</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF871094"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"target"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"json"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>}</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -276,55 +137,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF080808"/>
-      <name val="游ゴシック"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF871094"/>
-      <name val="游ゴシック"/>
+      <sz val="10"/>
+      <color rgb="FF080808"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF067D17"/>
-      <name val="游ゴシック"/>
+      <sz val="10"/>
+      <color rgb="FF871094"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0037A6"/>
-      <name val="游ゴシック"/>
+      <sz val="10"/>
+      <color rgb="FF067D17"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -336,11 +198,131 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -353,30 +335,51 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,67 +698,67 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.25" style="3"/>
+    <col min="1" max="1" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.25" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" ht="99.75" x14ac:dyDescent="0.4">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="71.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="131.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="D4" s="11">
         <v>2000</v>
       </c>
     </row>

--- a/src/test/resources/jenkinsJob/jenkinsJob.xlsx
+++ b/src/test/resources/jenkinsJob/jenkinsJob.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\jenkinsJob\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\github\auto-test\src\test\resources\jenkinsJob\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64D4025-31D4-4FE2-9AEB-F3B2C397534D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5C1285-A18E-4857-8FD6-0383E02B02BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -54,13 +54,6 @@
     "token": "${token}"
 }</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{ "target": "https://build.hugang.io/job/test/job/auto-test/job/auto-test" }</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"value":"download/2.json"}</t>
   </si>
   <si>
     <r>
@@ -108,12 +101,42 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>{ "target": "https://build.hugang.io/job/auto-test" }</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{"value":"download/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.json"}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -171,6 +194,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF080808"/>
+      <name val="Microsoft YaHei"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -399,9 +429,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -439,7 +469,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -545,7 +575,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -687,7 +717,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -698,7 +728,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -727,10 +757,10 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -739,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>4</v>
@@ -753,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>5</v>
